--- a/storage/app/download/zrcfx_zrcimport.xlsx
+++ b/storage/app/download/zrcfx_zrcimport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_aota\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D1EC18-8E1E-4F18-B4ED-5D7EFEA51D50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7740F866-5EE8-4C54-9556-820044D67C75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="12345" windowHeight="6900" xr2:uid="{729136A9-0580-46F2-92C0-79F7EAD6C668}"/>
+    <workbookView xWindow="5940" yWindow="0" windowWidth="12345" windowHeight="6900" xr2:uid="{729136A9-0580-46F2-92C0-79F7EAD6C668}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,29 +30,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>2018-12-21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-12-22</t>
+    <t>XXXXXX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YYYYYY</t>
+    <t>日期*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-12-23</t>
+    <t>机种名*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZZZZZZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXXXX</t>
+    <t>数量*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60C22ED-5515-49B8-9005-B4E2FEBE5060}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -433,35 +429,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/download/zrcfx_zrcimport.xlsx
+++ b/storage/app/download/zrcfx_zrcimport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_aota\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\AOTA\storage\app\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7740F866-5EE8-4C54-9556-820044D67C75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308DD105-BF3E-43E7-80DA-BF44D0837546}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="0" windowWidth="12345" windowHeight="6900" xr2:uid="{729136A9-0580-46F2-92C0-79F7EAD6C668}"/>
+    <workbookView xWindow="6870" yWindow="0" windowWidth="12345" windowHeight="6900" xr2:uid="{729136A9-0580-46F2-92C0-79F7EAD6C668}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,26 +30,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>2018-12-21</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+  <si>
+    <t>机种名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XXXXXX</t>
+    <t>d1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期*</t>
+    <t>d2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机种名*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>d9</t>
+  </si>
+  <si>
+    <t>d10</t>
+  </si>
+  <si>
+    <t>d11</t>
+  </si>
+  <si>
+    <t>d12</t>
+  </si>
+  <si>
+    <t>d13</t>
+  </si>
+  <si>
+    <t>d14</t>
+  </si>
+  <si>
+    <t>d15</t>
+  </si>
+  <si>
+    <t>d16</t>
+  </si>
+  <si>
+    <t>d17</t>
+  </si>
+  <si>
+    <t>d18</t>
+  </si>
+  <si>
+    <t>d19</t>
+  </si>
+  <si>
+    <t>d20</t>
+  </si>
+  <si>
+    <t>d21</t>
+  </si>
+  <si>
+    <t>d22</t>
+  </si>
+  <si>
+    <t>d23</t>
+  </si>
+  <si>
+    <t>d24</t>
+  </si>
+  <si>
+    <t>d25</t>
+  </si>
+  <si>
+    <t>d26</t>
+  </si>
+  <si>
+    <t>d27</t>
+  </si>
+  <si>
+    <t>d28</t>
+  </si>
+  <si>
+    <t>d29</t>
+  </si>
+  <si>
+    <t>d30</t>
+  </si>
+  <si>
+    <t>d31</t>
+  </si>
+  <si>
+    <t>QH00048</t>
   </si>
 </sst>
 </file>
@@ -416,37 +498,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60C22ED-5515-49B8-9005-B4E2FEBE5060}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>10</v>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
